--- a/static/templates/ListadoOficializadosOficializados.xlsx
+++ b/static/templates/ListadoOficializadosOficializados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josemasster\go\src\github.com\udistrital\sga_admisiones_mid\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABECA4A-4ED8-44C1-B568-088780509085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1490A696-5829-4B25-94B8-9CCFEFCE22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15990" xr2:uid="{71BD450C-9A86-4C58-B155-B326F8BFEAAD}"/>
   </bookViews>
@@ -205,36 +205,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,89 +634,96 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H7" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -735,7 +747,7 @@
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
